--- a/Blog.Core.Api/wwwroot/BlogCore.Data.excel/SysUserInfo.xlsx
+++ b/Blog.Core.Api/wwwroot/BlogCore.Data.excel/SysUserInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\sec-file\he\anjoy8\Blog.Core\Blog.Core.Api\wwwroot\BlogCore.Data.excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HelloNet\.Net Core\Blog.Core\Blog.Core.Api\wwwroot\BlogCore.Data.excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B97D6CB-A14F-4083-8762-8398F8218F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B954ED91-7CBF-4817-9D14-33D96BD849F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37230" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="3990" windowWidth="28800" windowHeight="16815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出结果" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>LoginName</t>
   </si>
@@ -172,6 +172,12 @@
   <si>
     <t>UpdateTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TenantId</t>
+  </si>
+  <si>
+    <t>Tenant</t>
   </si>
 </sst>
 </file>
@@ -226,11 +232,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -548,10 +554,10 @@
   <sheetPr>
     <outlinePr applyStyles="1"/>
   </sheetPr>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -575,7 +581,7 @@
     <col min="21" max="22" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,8 +648,14 @@
       <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="W1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -693,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -740,7 +752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -790,7 +802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -837,7 +849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -884,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -934,7 +946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -984,7 +996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1034,7 +1046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
         <v>45</v>
       </c>
